--- a/Documents/Masoud_BUDGET2.xlsx
+++ b/Documents/Masoud_BUDGET2.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n01036517\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Masoud\Documents\School\Year 3 Sem1\Ceng317 (Hardware Production)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Item</t>
   </si>
@@ -65,16 +65,25 @@
     <t>Price(including Tax)</t>
   </si>
   <si>
-    <t>New Webcamera</t>
+    <t>Acrylic Box</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>PCB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -113,15 +122,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -215,6 +228,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -250,6 +280,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -402,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,13 +534,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4">
-        <v>22.99</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -501,13 +548,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4">
-        <v>4.99</v>
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -515,29 +562,43 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="3">
-        <f>SUM(D2:D8)</f>
-        <v>211.54000000000005</v>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="3">
+        <f>SUM(D2:D9)</f>
+        <v>188.55000000000004</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
